--- a/results/predictions/The Best Laptop on Earth... is almost too easy to fix.xlsx
+++ b/results/predictions/The Best Laptop on Earth... is almost too easy to fix.xlsx
@@ -488,7 +488,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>pride</t>
+          <t>admiration</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -552,7 +552,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>pride</t>
+          <t>admiration</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>optimism</t>
+          <t>approval</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -744,7 +744,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>optimism</t>
+          <t>pride</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>optimism</t>
+          <t>approval</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>pride</t>
+          <t>amusement</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1128,7 +1128,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>desire</t>
+          <t>curiosity</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1512,7 +1512,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>optimism</t>
+          <t>curiosity</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -1544,7 +1544,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>optimism</t>
+          <t>excitement</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>surprise</t>
+          <t>confusion</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -1736,7 +1736,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>pride</t>
+          <t>joy</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>surprise</t>
+          <t>confusion</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -1864,7 +1864,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>relief</t>
+          <t>pride</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -2024,7 +2024,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>excitement</t>
+          <t>pride</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -2120,7 +2120,7 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>curiosity</t>
+          <t>amusement</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -2152,7 +2152,7 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>realization</t>
+          <t>confusion</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -2344,7 +2344,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>pride</t>
+          <t>curiosity</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -2632,7 +2632,7 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>excitement</t>
+          <t>amusement</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -2696,7 +2696,7 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>curiosity</t>
+          <t>love</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>curiosity</t>
+          <t>amusement</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -2856,7 +2856,7 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>optimism</t>
+          <t>approval</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -2952,7 +2952,7 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>excitement</t>
+          <t>amusement</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
@@ -2984,7 +2984,7 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>optimism</t>
+          <t>approval</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>optimism</t>
+          <t>pride</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
@@ -3048,7 +3048,7 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>excitement</t>
+          <t>amusement</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
@@ -3080,7 +3080,7 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>caring</t>
+          <t>curiosity</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
@@ -3176,7 +3176,7 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>gratitude</t>
+          <t>joy</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
